--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34946C-8A20-4227-9164-F457620DB9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0CFDA6F-259B-4705-BC1E-C78649466A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EC54F0D6-76BD-47B7-8DC3-5E1B0A5CEFFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DC42508B-EAC4-4380-8FF9-F6B7E62AB45A}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-KG-kadastr" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="179">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -490,6 +490,15 @@
     <t>GRONDEIGENDOM_RIJK_LANDBOUW</t>
   </si>
   <si>
+    <t>BEHEERGRENS_RIJK_RWS</t>
+  </si>
+  <si>
+    <t>KG-BGRIJKRWS-SO</t>
+  </si>
+  <si>
+    <t>V-KG-BGRIJKRWS-SO</t>
+  </si>
+  <si>
     <t>BENOGRENS_RIJK_RWS</t>
   </si>
   <si>
@@ -551,12 +560,6 @@
   </si>
   <si>
     <t>204,100,110</t>
-  </si>
-  <si>
-    <t>BEHEERGRENS_RIJK_RWS</t>
-  </si>
-  <si>
-    <t>KG-BGRIJKRWS-SO</t>
   </si>
 </sst>
 </file>
@@ -1416,11 +1419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA38047C-8004-47FE-A681-91D0E2BBF15A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3634A-76FA-4E79-A3B0-CAB26FC408FE}">
   <dimension ref="A1:AJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,7 +1549,7 @@
         <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1573,7 +1576,7 @@
         <v>253</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N2" t="s">
         <v>42</v>
@@ -1594,7 +1597,7 @@
         <v>253</v>
       </c>
       <c r="T2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
@@ -1615,7 +1618,7 @@
         <v>253</v>
       </c>
       <c r="AA2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AB2" t="s">
         <v>42</v>
@@ -1636,7 +1639,7 @@
         <v>253</v>
       </c>
       <c r="AH2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -2063,7 +2066,7 @@
         <v>578</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>577</v>
@@ -2093,7 +2096,7 @@
         <v>253</v>
       </c>
       <c r="M7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -2114,7 +2117,7 @@
         <v>253</v>
       </c>
       <c r="T7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="U7" t="s">
         <v>42</v>
@@ -2135,7 +2138,28 @@
         <v>253</v>
       </c>
       <c r="AA7" t="s">
-        <v>177</v>
+        <v>156</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7">
+        <v>170</v>
+      </c>
+      <c r="AD7">
+        <v>172</v>
+      </c>
+      <c r="AE7">
+        <v>170</v>
+      </c>
+      <c r="AF7">
+        <v>170</v>
+      </c>
+      <c r="AG7">
+        <v>253</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
@@ -2250,7 +2274,7 @@
         <v>586</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -2277,7 +2301,7 @@
         <v>253</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
@@ -2298,7 +2322,7 @@
         <v>253</v>
       </c>
       <c r="T9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U9" t="s">
         <v>42</v>
@@ -2319,7 +2343,7 @@
         <v>253</v>
       </c>
       <c r="AA9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AB9" t="s">
         <v>42</v>
@@ -2340,7 +2364,7 @@
         <v>253</v>
       </c>
       <c r="AH9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
@@ -2767,7 +2791,7 @@
         <v>592</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D14">
         <v>591</v>
@@ -2797,7 +2821,7 @@
         <v>253</v>
       </c>
       <c r="M14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
         <v>42</v>
@@ -2818,7 +2842,7 @@
         <v>253</v>
       </c>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="U14" t="s">
         <v>42</v>
@@ -2839,7 +2863,7 @@
         <v>253</v>
       </c>
       <c r="AA14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AB14" t="s">
         <v>42</v>
@@ -2860,7 +2884,7 @@
         <v>253</v>
       </c>
       <c r="AH14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
@@ -2975,7 +2999,7 @@
         <v>557</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -6401,7 +6425,7 @@
         <v>593</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
@@ -6428,7 +6452,7 @@
         <v>253</v>
       </c>
       <c r="M49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N49" t="s">
         <v>42</v>
@@ -6449,7 +6473,7 @@
         <v>253</v>
       </c>
       <c r="T49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U49" t="s">
         <v>42</v>
@@ -6470,7 +6494,7 @@
         <v>253</v>
       </c>
       <c r="AA49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AB49" t="s">
         <v>42</v>
@@ -6491,7 +6515,7 @@
         <v>253</v>
       </c>
       <c r="AH49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
@@ -7331,7 +7355,7 @@
         <v>4035</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58">
         <v>611</v>
@@ -7358,7 +7382,7 @@
         <v>170</v>
       </c>
       <c r="L58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M58" t="s">
         <v>41</v>
@@ -7539,7 +7563,7 @@
         <v>579</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -7566,7 +7590,7 @@
         <v>253</v>
       </c>
       <c r="M60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N60" t="s">
         <v>42</v>
@@ -7587,7 +7611,7 @@
         <v>253</v>
       </c>
       <c r="T60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U60" t="s">
         <v>42</v>
@@ -7608,7 +7632,7 @@
         <v>253</v>
       </c>
       <c r="AA60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AB60" t="s">
         <v>42</v>
@@ -7629,7 +7653,7 @@
         <v>253</v>
       </c>
       <c r="AH60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
@@ -8056,7 +8080,7 @@
         <v>585</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D65">
         <v>584</v>
@@ -8086,7 +8110,7 @@
         <v>253</v>
       </c>
       <c r="M65" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N65" t="s">
         <v>42</v>
@@ -8107,7 +8131,7 @@
         <v>253</v>
       </c>
       <c r="T65" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U65" t="s">
         <v>42</v>
@@ -8128,7 +8152,7 @@
         <v>253</v>
       </c>
       <c r="AA65" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AB65" t="s">
         <v>42</v>
@@ -8149,7 +8173,7 @@
         <v>253</v>
       </c>
       <c r="AH65" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
@@ -8257,7 +8281,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ66" xr:uid="{AA38047C-8004-47FE-A681-91D0E2BBF15A}">
+  <autoFilter ref="A1:AJ66" xr:uid="{EFF3634A-76FA-4E79-A3B0-CAB26FC408FE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ66">
       <sortCondition ref="C1:C66"/>
     </sortState>

--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-KG-kadastraleinformatieengrenzen.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0CFDA6F-259B-4705-BC1E-C78649466A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3A482AC-C649-45FA-8663-521482E3E701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DC42508B-EAC4-4380-8FF9-F6B7E62AB45A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{449B766E-397D-4DDE-A050-D8842983A6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-KG-kadastr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-KG-kadastr'!$A$1:$AJ$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-KG-kadastr'!$A$1:$AJ$77</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="190">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -560,6 +560,39 @@
   </si>
   <si>
     <t>204,100,110</t>
+  </si>
+  <si>
+    <t>LANDMETEN</t>
+  </si>
+  <si>
+    <t>LANDMETEN_METING</t>
+  </si>
+  <si>
+    <t>LANDMETEN_MEETPUNT</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW</t>
+  </si>
+  <si>
+    <t>LANDMETEN_PUNT</t>
+  </si>
+  <si>
+    <t>LANDMETEN_COGOPOINT</t>
+  </si>
+  <si>
+    <t>LANDMETEN_MEETGRENS</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_RASBAK</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_AS SPOOR</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_SMEERINSTALLATIE</t>
+  </si>
+  <si>
+    <t>LANDMETEN_BOVENBOUW_AFWATERINGSBAK</t>
   </si>
 </sst>
 </file>
@@ -1419,16 +1452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3634A-76FA-4E79-A3B0-CAB26FC408FE}">
-  <dimension ref="A1:AJ66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4AD5BF-B209-494F-9E5A-A4F220F7904C}">
+  <dimension ref="A1:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:AJ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -7559,11 +7592,8 @@
       <c r="A60" t="s">
         <v>36</v>
       </c>
-      <c r="B60">
-        <v>579</v>
-      </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -7575,99 +7605,93 @@
         <v>40</v>
       </c>
       <c r="H60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L60">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M60" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="N60" t="s">
         <v>42</v>
       </c>
       <c r="O60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="P60">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="S60">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T60" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="U60" t="s">
         <v>42</v>
       </c>
       <c r="V60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="W60">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="X60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Y60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Z60">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA60" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AB60" t="s">
         <v>42</v>
       </c>
       <c r="AC60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AD60">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AE60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF60">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AG60">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH60" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>36</v>
       </c>
-      <c r="B61">
-        <v>581</v>
-      </c>
       <c r="C61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61">
-        <v>579</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
@@ -7679,99 +7703,93 @@
         <v>40</v>
       </c>
       <c r="H61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I61">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L61">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="N61" t="s">
         <v>42</v>
       </c>
       <c r="O61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="P61">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="Q61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="S61">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T61" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="U61" t="s">
         <v>42</v>
       </c>
       <c r="V61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="W61">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="X61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Y61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Z61">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA61" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="AB61" t="s">
         <v>42</v>
       </c>
       <c r="AC61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AD61">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AE61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF61">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AG61">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH61" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>36</v>
       </c>
-      <c r="B62">
-        <v>582</v>
-      </c>
       <c r="C62" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62">
-        <v>579</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
@@ -7783,99 +7801,93 @@
         <v>40</v>
       </c>
       <c r="H62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I62">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L62">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M62" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="N62" t="s">
         <v>42</v>
       </c>
       <c r="O62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="P62">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="S62">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T62" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="U62" t="s">
         <v>42</v>
       </c>
       <c r="V62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="W62">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="X62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Y62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Z62">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA62" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="AB62" t="s">
         <v>42</v>
       </c>
       <c r="AC62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AD62">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AE62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF62">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AG62">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH62" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>36</v>
       </c>
-      <c r="B63">
-        <v>580</v>
-      </c>
       <c r="C63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63">
-        <v>579</v>
+        <v>187</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
@@ -7887,99 +7899,93 @@
         <v>40</v>
       </c>
       <c r="H63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I63">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L63">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M63" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N63" t="s">
         <v>42</v>
       </c>
       <c r="O63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="P63">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="Q63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="S63">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T63" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="U63" t="s">
         <v>42</v>
       </c>
       <c r="V63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="W63">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="X63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Y63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Z63">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA63" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="AB63" t="s">
         <v>42</v>
       </c>
       <c r="AC63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AD63">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AE63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF63">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AG63">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH63" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>36</v>
       </c>
-      <c r="B64">
-        <v>584</v>
-      </c>
       <c r="C64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64">
-        <v>579</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
@@ -7991,99 +7997,93 @@
         <v>40</v>
       </c>
       <c r="H64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I64">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L64">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M64" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="N64" t="s">
         <v>42</v>
       </c>
       <c r="O64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="Q64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="S64">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T64" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="U64" t="s">
         <v>42</v>
       </c>
       <c r="V64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="W64">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="X64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Y64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Z64">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA64" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AB64" t="s">
         <v>42</v>
       </c>
       <c r="AC64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AD64">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AE64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF64">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AG64">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH64" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B65">
-        <v>585</v>
-      </c>
       <c r="C65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65">
-        <v>584</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
@@ -8095,99 +8095,93 @@
         <v>40</v>
       </c>
       <c r="H65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I65">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L65">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M65" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="N65" t="s">
         <v>42</v>
       </c>
       <c r="O65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="P65">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="Q65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="R65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="S65">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="T65" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="U65" t="s">
         <v>42</v>
       </c>
       <c r="V65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="W65">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="X65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Y65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="Z65">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AA65" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AB65" t="s">
         <v>42</v>
       </c>
       <c r="AC65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AD65">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="AE65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AF65">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AG65">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AH65" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>36</v>
       </c>
-      <c r="B66">
-        <v>583</v>
-      </c>
       <c r="C66" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66">
-        <v>579</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
@@ -8199,91 +8193,1208 @@
         <v>40</v>
       </c>
       <c r="H66">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="J66">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="K66">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="L66">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="M66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N66" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66">
+        <v>85</v>
+      </c>
+      <c r="P66">
+        <v>85</v>
+      </c>
+      <c r="Q66">
+        <v>85</v>
+      </c>
+      <c r="R66">
+        <v>85</v>
+      </c>
+      <c r="S66">
+        <v>85</v>
+      </c>
+      <c r="T66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s">
+        <v>42</v>
+      </c>
+      <c r="V66">
+        <v>7</v>
+      </c>
+      <c r="W66">
+        <v>7</v>
+      </c>
+      <c r="X66">
+        <v>7</v>
+      </c>
+      <c r="Y66">
+        <v>7</v>
+      </c>
+      <c r="Z66">
+        <v>7</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC66">
+        <v>7</v>
+      </c>
+      <c r="AD66">
+        <v>7</v>
+      </c>
+      <c r="AE66">
+        <v>7</v>
+      </c>
+      <c r="AF66">
+        <v>7</v>
+      </c>
+      <c r="AG66">
+        <v>7</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67" t="s">
+        <v>41</v>
+      </c>
+      <c r="N67" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="P67">
+        <v>7</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>7</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67" t="s">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s">
+        <v>42</v>
+      </c>
+      <c r="V67">
+        <v>7</v>
+      </c>
+      <c r="W67">
+        <v>7</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>7</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC67">
+        <v>7</v>
+      </c>
+      <c r="AD67">
+        <v>7</v>
+      </c>
+      <c r="AE67">
+        <v>7</v>
+      </c>
+      <c r="AF67">
+        <v>7</v>
+      </c>
+      <c r="AG67">
+        <v>7</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N68" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" t="s">
+        <v>42</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
+      </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>7</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="Q69">
+        <v>7</v>
+      </c>
+      <c r="R69">
+        <v>7</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69" t="s">
+        <v>41</v>
+      </c>
+      <c r="U69" t="s">
+        <v>42</v>
+      </c>
+      <c r="V69">
+        <v>7</v>
+      </c>
+      <c r="W69">
+        <v>7</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>7</v>
+      </c>
+      <c r="Z69">
+        <v>7</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC69">
+        <v>7</v>
+      </c>
+      <c r="AD69">
+        <v>7</v>
+      </c>
+      <c r="AE69">
+        <v>7</v>
+      </c>
+      <c r="AF69">
+        <v>7</v>
+      </c>
+      <c r="AG69">
+        <v>7</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70" t="s">
+        <v>41</v>
+      </c>
+      <c r="N70" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" t="s">
+        <v>42</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71">
+        <v>579</v>
+      </c>
+      <c r="C71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>170</v>
+      </c>
+      <c r="I71">
+        <v>172</v>
+      </c>
+      <c r="J71">
+        <v>170</v>
+      </c>
+      <c r="K71">
+        <v>170</v>
+      </c>
+      <c r="L71">
+        <v>253</v>
+      </c>
+      <c r="M71" t="s">
+        <v>175</v>
+      </c>
+      <c r="N71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71">
+        <v>170</v>
+      </c>
+      <c r="P71">
+        <v>172</v>
+      </c>
+      <c r="Q71">
+        <v>170</v>
+      </c>
+      <c r="R71">
+        <v>170</v>
+      </c>
+      <c r="S71">
+        <v>253</v>
+      </c>
+      <c r="T71" t="s">
+        <v>175</v>
+      </c>
+      <c r="U71" t="s">
+        <v>42</v>
+      </c>
+      <c r="V71">
+        <v>170</v>
+      </c>
+      <c r="W71">
+        <v>172</v>
+      </c>
+      <c r="X71">
+        <v>170</v>
+      </c>
+      <c r="Y71">
+        <v>170</v>
+      </c>
+      <c r="Z71">
+        <v>253</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC71">
+        <v>170</v>
+      </c>
+      <c r="AD71">
+        <v>172</v>
+      </c>
+      <c r="AE71">
+        <v>170</v>
+      </c>
+      <c r="AF71">
+        <v>170</v>
+      </c>
+      <c r="AG71">
+        <v>253</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>581</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72">
+        <v>579</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>170</v>
+      </c>
+      <c r="I72">
+        <v>172</v>
+      </c>
+      <c r="J72">
+        <v>170</v>
+      </c>
+      <c r="K72">
+        <v>170</v>
+      </c>
+      <c r="L72">
+        <v>253</v>
+      </c>
+      <c r="M72" t="s">
+        <v>147</v>
+      </c>
+      <c r="N72" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72">
+        <v>170</v>
+      </c>
+      <c r="P72">
+        <v>172</v>
+      </c>
+      <c r="Q72">
+        <v>170</v>
+      </c>
+      <c r="R72">
+        <v>170</v>
+      </c>
+      <c r="S72">
+        <v>253</v>
+      </c>
+      <c r="T72" t="s">
+        <v>147</v>
+      </c>
+      <c r="U72" t="s">
+        <v>42</v>
+      </c>
+      <c r="V72">
+        <v>170</v>
+      </c>
+      <c r="W72">
+        <v>172</v>
+      </c>
+      <c r="X72">
+        <v>170</v>
+      </c>
+      <c r="Y72">
+        <v>170</v>
+      </c>
+      <c r="Z72">
+        <v>253</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC72">
+        <v>170</v>
+      </c>
+      <c r="AD72">
+        <v>172</v>
+      </c>
+      <c r="AE72">
+        <v>170</v>
+      </c>
+      <c r="AF72">
+        <v>170</v>
+      </c>
+      <c r="AG72">
+        <v>253</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>582</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73">
+        <v>579</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>170</v>
+      </c>
+      <c r="I73">
+        <v>172</v>
+      </c>
+      <c r="J73">
+        <v>170</v>
+      </c>
+      <c r="K73">
+        <v>170</v>
+      </c>
+      <c r="L73">
+        <v>253</v>
+      </c>
+      <c r="M73" t="s">
+        <v>135</v>
+      </c>
+      <c r="N73" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73">
+        <v>170</v>
+      </c>
+      <c r="P73">
+        <v>172</v>
+      </c>
+      <c r="Q73">
+        <v>170</v>
+      </c>
+      <c r="R73">
+        <v>170</v>
+      </c>
+      <c r="S73">
+        <v>253</v>
+      </c>
+      <c r="T73" t="s">
+        <v>135</v>
+      </c>
+      <c r="U73" t="s">
+        <v>42</v>
+      </c>
+      <c r="V73">
+        <v>170</v>
+      </c>
+      <c r="W73">
+        <v>172</v>
+      </c>
+      <c r="X73">
+        <v>170</v>
+      </c>
+      <c r="Y73">
+        <v>170</v>
+      </c>
+      <c r="Z73">
+        <v>253</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC73">
+        <v>170</v>
+      </c>
+      <c r="AD73">
+        <v>172</v>
+      </c>
+      <c r="AE73">
+        <v>170</v>
+      </c>
+      <c r="AF73">
+        <v>170</v>
+      </c>
+      <c r="AG73">
+        <v>253</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>580</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74">
+        <v>579</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>170</v>
+      </c>
+      <c r="I74">
+        <v>172</v>
+      </c>
+      <c r="J74">
+        <v>170</v>
+      </c>
+      <c r="K74">
+        <v>170</v>
+      </c>
+      <c r="L74">
+        <v>253</v>
+      </c>
+      <c r="M74" t="s">
+        <v>141</v>
+      </c>
+      <c r="N74" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74">
+        <v>170</v>
+      </c>
+      <c r="P74">
+        <v>172</v>
+      </c>
+      <c r="Q74">
+        <v>170</v>
+      </c>
+      <c r="R74">
+        <v>170</v>
+      </c>
+      <c r="S74">
+        <v>253</v>
+      </c>
+      <c r="T74" t="s">
+        <v>141</v>
+      </c>
+      <c r="U74" t="s">
+        <v>42</v>
+      </c>
+      <c r="V74">
+        <v>170</v>
+      </c>
+      <c r="W74">
+        <v>172</v>
+      </c>
+      <c r="X74">
+        <v>170</v>
+      </c>
+      <c r="Y74">
+        <v>170</v>
+      </c>
+      <c r="Z74">
+        <v>253</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC74">
+        <v>170</v>
+      </c>
+      <c r="AD74">
+        <v>172</v>
+      </c>
+      <c r="AE74">
+        <v>170</v>
+      </c>
+      <c r="AF74">
+        <v>170</v>
+      </c>
+      <c r="AG74">
+        <v>253</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75">
+        <v>584</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75">
+        <v>579</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>170</v>
+      </c>
+      <c r="I75">
+        <v>172</v>
+      </c>
+      <c r="J75">
+        <v>170</v>
+      </c>
+      <c r="K75">
+        <v>170</v>
+      </c>
+      <c r="L75">
+        <v>253</v>
+      </c>
+      <c r="M75" t="s">
+        <v>138</v>
+      </c>
+      <c r="N75" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75">
+        <v>170</v>
+      </c>
+      <c r="P75">
+        <v>172</v>
+      </c>
+      <c r="Q75">
+        <v>170</v>
+      </c>
+      <c r="R75">
+        <v>170</v>
+      </c>
+      <c r="S75">
+        <v>253</v>
+      </c>
+      <c r="T75" t="s">
+        <v>138</v>
+      </c>
+      <c r="U75" t="s">
+        <v>42</v>
+      </c>
+      <c r="V75">
+        <v>170</v>
+      </c>
+      <c r="W75">
+        <v>172</v>
+      </c>
+      <c r="X75">
+        <v>170</v>
+      </c>
+      <c r="Y75">
+        <v>170</v>
+      </c>
+      <c r="Z75">
+        <v>253</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC75">
+        <v>170</v>
+      </c>
+      <c r="AD75">
+        <v>172</v>
+      </c>
+      <c r="AE75">
+        <v>170</v>
+      </c>
+      <c r="AF75">
+        <v>170</v>
+      </c>
+      <c r="AG75">
+        <v>253</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>585</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76">
+        <v>584</v>
+      </c>
+      <c r="E76" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>170</v>
+      </c>
+      <c r="I76">
+        <v>172</v>
+      </c>
+      <c r="J76">
+        <v>170</v>
+      </c>
+      <c r="K76">
+        <v>170</v>
+      </c>
+      <c r="L76">
+        <v>253</v>
+      </c>
+      <c r="M76" t="s">
+        <v>162</v>
+      </c>
+      <c r="N76" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76">
+        <v>170</v>
+      </c>
+      <c r="P76">
+        <v>172</v>
+      </c>
+      <c r="Q76">
+        <v>170</v>
+      </c>
+      <c r="R76">
+        <v>170</v>
+      </c>
+      <c r="S76">
+        <v>253</v>
+      </c>
+      <c r="T76" t="s">
+        <v>162</v>
+      </c>
+      <c r="U76" t="s">
+        <v>42</v>
+      </c>
+      <c r="V76">
+        <v>170</v>
+      </c>
+      <c r="W76">
+        <v>172</v>
+      </c>
+      <c r="X76">
+        <v>170</v>
+      </c>
+      <c r="Y76">
+        <v>170</v>
+      </c>
+      <c r="Z76">
+        <v>253</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC76">
+        <v>170</v>
+      </c>
+      <c r="AD76">
+        <v>172</v>
+      </c>
+      <c r="AE76">
+        <v>170</v>
+      </c>
+      <c r="AF76">
+        <v>170</v>
+      </c>
+      <c r="AG76">
+        <v>253</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77">
+        <v>583</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77">
+        <v>579</v>
+      </c>
+      <c r="E77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>170</v>
+      </c>
+      <c r="I77">
+        <v>172</v>
+      </c>
+      <c r="J77">
+        <v>170</v>
+      </c>
+      <c r="K77">
+        <v>170</v>
+      </c>
+      <c r="L77">
+        <v>253</v>
+      </c>
+      <c r="M77" t="s">
         <v>144</v>
       </c>
-      <c r="N66" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66">
-        <v>170</v>
-      </c>
-      <c r="P66">
-        <v>172</v>
-      </c>
-      <c r="Q66">
-        <v>170</v>
-      </c>
-      <c r="R66">
-        <v>170</v>
-      </c>
-      <c r="S66">
-        <v>253</v>
-      </c>
-      <c r="T66" t="s">
+      <c r="N77" t="s">
+        <v>42</v>
+      </c>
+      <c r="O77">
+        <v>170</v>
+      </c>
+      <c r="P77">
+        <v>172</v>
+      </c>
+      <c r="Q77">
+        <v>170</v>
+      </c>
+      <c r="R77">
+        <v>170</v>
+      </c>
+      <c r="S77">
+        <v>253</v>
+      </c>
+      <c r="T77" t="s">
         <v>144</v>
       </c>
-      <c r="U66" t="s">
-        <v>42</v>
-      </c>
-      <c r="V66">
-        <v>170</v>
-      </c>
-      <c r="W66">
-        <v>172</v>
-      </c>
-      <c r="X66">
-        <v>170</v>
-      </c>
-      <c r="Y66">
-        <v>170</v>
-      </c>
-      <c r="Z66">
-        <v>253</v>
-      </c>
-      <c r="AA66" t="s">
+      <c r="U77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V77">
+        <v>170</v>
+      </c>
+      <c r="W77">
+        <v>172</v>
+      </c>
+      <c r="X77">
+        <v>170</v>
+      </c>
+      <c r="Y77">
+        <v>170</v>
+      </c>
+      <c r="Z77">
+        <v>253</v>
+      </c>
+      <c r="AA77" t="s">
         <v>144</v>
       </c>
-      <c r="AB66" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC66">
-        <v>170</v>
-      </c>
-      <c r="AD66">
-        <v>172</v>
-      </c>
-      <c r="AE66">
-        <v>170</v>
-      </c>
-      <c r="AF66">
-        <v>170</v>
-      </c>
-      <c r="AG66">
-        <v>253</v>
-      </c>
-      <c r="AH66" t="s">
+      <c r="AB77" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC77">
+        <v>170</v>
+      </c>
+      <c r="AD77">
+        <v>172</v>
+      </c>
+      <c r="AE77">
+        <v>170</v>
+      </c>
+      <c r="AF77">
+        <v>170</v>
+      </c>
+      <c r="AG77">
+        <v>253</v>
+      </c>
+      <c r="AH77" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ66" xr:uid="{EFF3634A-76FA-4E79-A3B0-CAB26FC408FE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ66">
-      <sortCondition ref="C1:C66"/>
+  <autoFilter ref="A1:AJ77" xr:uid="{FD4AD5BF-B209-494F-9E5A-A4F220F7904C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ77">
+      <sortCondition ref="C1:C77"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
